--- a/graphs/proportions.xlsx
+++ b/graphs/proportions.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="proportions" sheetId="1" r:id="rId1"/>
+    <sheet name="optimizable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Native</t>
   </si>
@@ -51,6 +52,24 @@
   </si>
   <si>
     <t>Data Center</t>
+  </si>
+  <si>
+    <t>% relative to non-native time</t>
+  </si>
+  <si>
+    <t>% relative to data center time</t>
+  </si>
+  <si>
+    <t>total CPU hours</t>
+  </si>
+  <si>
+    <t>% of non-native times</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Non-Native Hours</t>
   </si>
 </sst>
 </file>
@@ -86,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>proportions!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -141,7 +162,154 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>proportions!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Cosmos8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cosmos9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cosmos11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cosmos14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cosmos15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>proportions!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>69.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.211364302276053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEFF-4AF8-8E16-710C3CACCF20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>proportions!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
               <a:fgClr>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -161,9 +329,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>proportions!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Cosmos8</c:v>
                 </c:pt>
@@ -178,124 +346,43 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cosmos15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>proportions!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>69.72</c:v>
+                  <c:v>27.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.319999999999993</c:v>
+                  <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.9</c:v>
+                  <c:v>35.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.94</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.7</c:v>
+                  <c:v>51.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.173188079152098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C072-4613-86EB-29488A78DB8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Native</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="smGrid">
-              <a:fgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Cosmos8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cosmos9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cosmos11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cosmos14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cosmos15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>27.74</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.659999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C072-4613-86EB-29488A78DB8E}"/>
+              <c16:uniqueId val="{00000000-BEFF-4AF8-8E16-710C3CACCF20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -304,7 +391,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>proportions!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -327,9 +414,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>proportions!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Cosmos8</c:v>
                 </c:pt>
@@ -344,16 +431,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cosmos15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>proportions!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.54</c:v>
                 </c:pt>
@@ -368,13 +458,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6169144053166136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C072-4613-86EB-29488A78DB8E}"/>
+              <c16:uniqueId val="{00000002-BEFF-4AF8-8E16-710C3CACCF20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -388,11 +481,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="393594336"/>
-        <c:axId val="393595976"/>
+        <c:axId val="386155296"/>
+        <c:axId val="386155624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393594336"/>
+        <c:axId val="386155296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +513,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -435,7 +528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393595976"/>
+        <c:crossAx val="386155624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,11 +536,394 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393595976"/>
+        <c:axId val="386155624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386155296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimizable!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% relative to non-native time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimizable!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Cosmos8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cosmos9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cosmos11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cosmos14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cosmos15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimizable!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0.12281211871705593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E11F-4886-BBD1-B403F09E439B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimizable!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% relative to data center time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimizable!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Cosmos8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cosmos9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cosmos11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cosmos14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cosmos15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimizable!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>7.5174973395240846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E11F-4886-BBD1-B403F09E439B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="477603560"/>
+        <c:axId val="477603888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477603560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477603888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477603888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -481,7 +957,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -496,7 +972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393594336"/>
+        <c:crossAx val="477603560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -523,7 +999,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -616,6 +1092,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1089,6 +1605,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1126,22 +2145,63 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127CF889-2B4F-42E2-AECD-76D2AD913EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1638299</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3571D01B-5DFC-4450-A5D6-7A9552B620B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB4816A-E960-484C-B7B8-F5AD58E8CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,19 +2519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1484,79 +2546,386 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>27.74</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>69.72</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2.54</v>
       </c>
+      <c r="E2" s="1">
+        <v>28559063</v>
+      </c>
+      <c r="F2">
+        <f>B2*$E2/100</f>
+        <v>7922284.0762</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:H2" si="0">C2*$E2/100</f>
+        <v>19911378.7236</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>725400.20019999996</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>21.3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>73.319999999999993</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5.38</v>
       </c>
+      <c r="E3" s="1">
+        <v>40714052</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="1">B3*$E3/100</f>
+        <v>8672093.0759999994</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="2">C3*$E3/100</f>
+        <v>29851542.926399998</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="3">D3*$E3/100</f>
+        <v>2190415.9975999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>35.659999999999997</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>58.9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5.44</v>
       </c>
+      <c r="E4" s="1">
+        <v>23312271</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8313155.8385999985</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>13730927.618999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1268187.5424000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>40.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>54.94</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.67</v>
       </c>
+      <c r="E5" s="1">
+        <v>21299039</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8604811.756000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>11701692.026599998</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>994665.1213</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>51.43</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>43.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4.87</v>
+      </c>
+      <c r="E6" s="1">
+        <v>31324407</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>16110142.520099999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>13688765.859000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1525498.6209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <f>F7/$E7*100</f>
+        <v>34.173188079152098</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:D7" si="4">G7/$E7*100</f>
+        <v>61.211364302276053</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6169144053166136</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>145208832</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:H7" si="5">SUM(F2:F6)</f>
+        <v>49622487.266899996</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>88884307.154599994</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="5"/>
+        <v>6704167.4824000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.06</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>28559063</v>
+      </c>
+      <c r="E2">
+        <v>69.72</v>
+      </c>
+      <c r="F2">
+        <f>E2*D2/100</f>
+        <v>19911378.7236</v>
+      </c>
+      <c r="G2">
+        <f>F2*B2</f>
+        <v>1194682.7234159999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40714052</v>
+      </c>
+      <c r="E3">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="F3">
+        <f>E3*D3/100</f>
+        <v>29851542.926399998</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">F3*B3</f>
+        <v>298515.42926399998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23312271</v>
+      </c>
+      <c r="E4">
+        <v>58.9</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4/100</f>
+        <v>13730927.618999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2059639.1428499997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21299039</v>
+      </c>
+      <c r="E5">
+        <v>54.94</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5/100</f>
+        <v>11701692.026599998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3393490.6877139993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31324407</v>
+      </c>
+      <c r="E6">
+        <v>43.7</v>
+      </c>
+      <c r="F6">
+        <f>E6*D6/100</f>
+        <v>13688765.859000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3969742.0991099998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <f>G7/F7</f>
+        <v>0.12281211871705593</v>
+      </c>
+      <c r="C7" s="2">
+        <f>G7/D7</f>
+        <v>7.5174973395240846E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D2:D6)</f>
+        <v>145208832</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>88884307.154599994</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>10916070.082353998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>